--- a/outputs/Content_Idea_Repository.xlsx
+++ b/outputs/Content_Idea_Repository.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,27 +488,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>程序员能量补给站</t>
+          <t>AR实验室探秘之旅</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>张伟</t>
+          <t>林薇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>都市生活方式</t>
+          <t>科技看得见</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>针对程序员推出“996能量包”，包含多种口味能量棒和提神小贴士，解决工作场景下的能量需求</t>
+          <t>通过AR互动让用户深入探索植物干细胞实验室，感受科技魅力</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>社交媒体挑战、B站视频合作</t>
+          <t>AR滤镜、短视频、直播</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -535,32 +535,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>活力π实验室</t>
+          <t>#月光疗愈明信片挑战</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>王静</t>
+          <t>苏岚</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>营养科学</t>
+          <t>仪式治愈力</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>邀请营养师拆解产品成分，讲解科学配比和健康益处，增加专业可信度</t>
+          <t>用户分享月光下护肤瞬间，生成个性化明信片</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>小红书图文、短视频</t>
+          <t>UGC挑战、社交媒体活动</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -582,27 +582,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>健身前后的最佳拍档</t>
+          <t>碳足迹可视化报告</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>王静</t>
+          <t>苏岚</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>都市生活方式</t>
+          <t>美丽零碳足迹</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>展示能量棒在健身前后的食用场景，搭配健身达人体验分享</t>
+          <t>每份订阅装附带专属碳足迹分析</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>小红书挑战、KOL合作</t>
+          <t>电子报告、包装印刷</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -629,37 +629,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>办公室能量争夺战</t>
+          <t>通勤急救术系列</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>张伟</t>
+          <t>陈玥</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>社区与互动</t>
+          <t>仪式治愈力</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>鼓励用户分享办公室能量补充创意吃法，发起UGC内容征集活动</t>
+          <t>5分钟快速护肤技巧，适合职场妈妈</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>微博话题、微信互动</t>
+          <t>短视频、图文教程</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -676,27 +676,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>天然食材溯源之旅</t>
+          <t>成分党陪审团计划</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>王静</t>
+          <t>林薇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>可持续性与来源</t>
+          <t>科技看得见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>拍摄食材产地纪录片，展示品牌对天然和可持续的坚持</t>
+          <t>招募KOC参与产品成分测试与反馈</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>视频内容、图文故事</t>
+          <t>社群运营、直播</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -723,27 +723,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>活力π口味盲测</t>
+          <t>空瓶改造手工课</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>张伟、王静</t>
+          <t>苏岚</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>社区与互动</t>
+          <t>美丽零碳足迹</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>邀请用户参与新口味盲测投票，增加参与感和新品曝光</t>
+          <t>品牌定期举办空瓶DIY活动</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>社交媒体投票、直播</t>
+          <t>线下工作坊、视频教程</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -770,27 +770,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>能量棒DIY工坊</t>
+          <t>《职场妈妈效率手册》</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>王静</t>
+          <t>陈玥</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>营养科学</t>
+          <t>仪式治愈力</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>线上教用户如何用活力π能量棒制作健康小点心，拓展食用场景</t>
+          <t>提供高效护肤与生活技巧</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>短视频、直播教学</t>
+          <t>电子书、会员专享</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -817,42 +817,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>职场能量时刻</t>
+          <t>极简包装设计大赛</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>张伟</t>
+          <t>赵阳</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>都市生活方式</t>
+          <t>美丽零碳足迹</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>制作系列短片，展示不同职场人如何用能量棒应对工作挑战</t>
+          <t>用户提交极简包装创意，最佳方案将被采纳</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>短视频系列、微博话题</t>
+          <t>UGC竞赛、社群互动</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -864,27 +864,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>活力π科学挑战</t>
+          <t>植物学家闺蜜日记</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>张伟、王静</t>
+          <t>张思</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>营养科学</t>
+          <t>科技看得见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>发起健康饮食挑战，鼓励用户分享科学饮食搭配</t>
+          <t>品牌科学家分享研发故事与植物成分揭秘</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>社交媒体挑战、KOL带动</t>
+          <t>Vlog、专栏文章</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -911,42 +911,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>限量版礼盒</t>
+          <t>夜间ASMR护肤仪式</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>王静</t>
+          <t>苏岚</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>社区与互动</t>
+          <t>仪式治愈力</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>推出节日限量版包装，结合健康生活方式主题，提升品牌调性</t>
+          <t>用ASMR声音打造沉浸式夜间护理体验</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>特别包装、限量发售</t>
+          <t>音频内容、短视频</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>

--- a/outputs/Content_Idea_Repository.xlsx
+++ b/outputs/Content_Idea_Repository.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,16 +479,17 @@
           <t>Score_Feasibility (1-10)</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AR实验室探秘之旅</t>
+          <t>区块链溯源实验室直播</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,17 +499,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>科技看得见</t>
+          <t>成分透明</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>通过AR互动让用户深入探索植物干细胞实验室，感受科技魅力</t>
+          <t>邀请用户远程操控显微镜观察原料，实时生成溯源证书</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AR滤镜、短视频、直播</t>
+          <t>抖音直播+小程序互动</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,165 +519,169 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#月光疗愈明信片挑战</t>
+          <t>碳足迹兑换面膜计划</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>苏岚</t>
+          <t>林薇/苏媛</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>仪式治愈力</t>
+          <t>环保量化</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>用户分享月光下护肤瞬间，生成个性化明信片</t>
+          <t>空瓶回收累积碳积分，兑换产品或植树证书</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UGC挑战、社交媒体活动</t>
+          <t>小红书挑战赛+H5追踪</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>碳足迹可视化报告</t>
+          <t>月光疗愈ASMR电台</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>苏岚</t>
+          <t>苏媛</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>美丽零碳足迹</t>
+          <t>感官疗愈</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>每份订阅装附带专属碳足迹分析</t>
+          <t>定制云莓香氛背景音+磁吸膜布摩擦音，助眠音频</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>电子报告、包装印刷</t>
+          <t>抖音短视频+Spotify专栏</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>通勤急救术系列</t>
+          <t>女科学家成分百科</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>陈玥</t>
+          <t>林薇</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>仪式治愈力</t>
+          <t>女性赋能</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5分钟快速护肤技巧，适合职场妈妈</t>
+          <t>李媛博士解读专利技术的短视频系列，带#女性STEM话题</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>短视频、图文教程</t>
+          <t>小红书专栏+微信知识库</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>成分党陪审团计划</t>
+          <t>极地植物追踪纪录片</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -686,22 +691,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>科技看得见</t>
+          <t>成分透明</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>招募KOC参与产品成分测试与反馈</t>
+          <t>跟拍北极云莓采集过程，突出极端环境活性物质</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>社群运营、直播</t>
+          <t>B站纪录片+抖音切片</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -711,237 +716,242 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>可持续艺术包装大赛</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>苏媛</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>环保量化</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>邀请用户改造空瓶创作，获奖作品量产为限定版</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Instagram展览+小红书投票</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>空瓶改造手工课</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>苏岚</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>美丽零碳足迹</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>品牌定期举办空瓶DIY活动</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>线下工作坊、视频教程</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>熬夜肌急救数据可视化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>林薇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>技术可信度</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>用户上传28天肌肤检测图，AI生成抗氧力变化报告</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>微信小程序+数据长图</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>《职场妈妈效率手册》</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>陈玥</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>仪式治愈力</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>提供高效护肤与生活技巧</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>电子书、会员专享</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>磁吸膜布解压挑战</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>苏媛</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>感官疗愈</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>模仿ASMR音效创作UGC，最佳作品获实验室参观资格</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>抖音话题赛+线下活动</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>极简包装设计大赛</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>赵阳</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>美丽零碳足迹</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>用户提交极简包装创意，最佳方案将被采纳</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>UGC竞赛、社群互动</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>碳盲盒快闪店</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>苏媛</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>环保量化</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>盲盒内随机放置产品+碳抵消项目（如1㎡森林认养）</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>线下快闪+抖音开箱</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>植物学家闺蜜日记</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>张思</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>科技看得见</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>品牌科学家分享研发故事与植物成分揭秘</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Vlog、专栏文章</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>成分党黑科技解密</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>林薇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>技术可信度</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>用乐高演示微囊缓释技术，复杂原理具象化</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>抖音动画+小红书图解</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>夜间ASMR护肤仪式</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>苏岚</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>仪式治愈力</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>用ASMR声音打造沉浸式夜间护理体验</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>音频内容、短视频</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -949,6 +959,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/Content_Idea_Repository.xlsx
+++ b/outputs/Content_Idea_Repository.xlsx
@@ -484,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>区块链溯源实验室直播</t>
+          <t>"微囊实验室延时摄影"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,17 +499,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>成分透明</t>
+          <t>科技精准投喂</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>邀请用户远程操控显微镜观察原料，实时生成溯源证书</t>
+          <t>展示微囊技术12小时缓释过程的4K延时视频，配植物学家解说</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>抖音直播+小程序互动</t>
+          <t>抖音短视频/小红书笔记/官网主页</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,32 +532,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>碳足迹兑换面膜计划</t>
+          <t>"空瓶换碳汇积分"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>林薇/苏媛</t>
+          <t>陈羽墨</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>环保量化</t>
+          <t>地球友好可证</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>空瓶回收累积碳积分，兑换产品或植树证书</t>
+          <t>用户寄回空瓶获碳减排积分，可兑换树苗种植或碳汇捐赠</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>小红书挑战赛+H5追踪</t>
+          <t>Instagram活动页/微博话题/会员系统</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -580,32 +580,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>月光疗愈ASMR电台</t>
+          <t>"熬夜肌PK蓝莓实验"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>苏媛</t>
+          <t>张晓雅</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>感官疗愈</t>
+          <t>科技精准投喂</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>定制云莓香氛背景音+磁吸膜布摩擦音，助眠音频</t>
+          <t>用ORAC值测试仪对比云莓与蓝莓的抗氧化能力直播</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>抖音短视频+Spotify专栏</t>
+          <t>抖音挑战赛/小红书对比图</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -628,47 +628,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>女科学家成分百科</t>
+          <t>"碳足迹扫码追踪"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>林薇</t>
+          <t>陈羽墨</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>女性赋能</t>
+          <t>地球友好可证</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>李媛博士解读专利技术的短视频系列，带#女性STEM话题</t>
+          <t>产品包装附带二维码，扫码查看从原料到货架的碳足迹地图</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>小红书专栏+微信知识库</t>
+          <t>包装设计/Instagram Stories</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -676,47 +676,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>极地植物追踪纪录片</t>
+          <t>"月光面膜7天挑战"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>林薇</t>
+          <t>张晓雅</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>成分透明</t>
+          <t>科技精准投喂</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>跟拍北极云莓采集过程，突出极端环境活性物质</t>
+          <t>KOC记录连续7天熬夜使用效果，生成AI肌肤对比报告</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B站纪录片+抖音切片</t>
+          <t>抖音合集/小红书打卡</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -724,47 +724,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>可持续艺术包装大赛</t>
+          <t>"北极云莓培育日记"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苏媛</t>
+          <t>林薇</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>环保量化</t>
+          <t>成分透明化</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>邀请用户改造空瓶创作，获奖作品量产为限定版</t>
+          <t>发布北极云莓种植基地的360°全景视频，强调极端环境生长特性</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Instagram展览+小红书投票</t>
+          <t>官网专题页/VR内容</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -772,37 +772,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>熬夜肌急救数据可视化</t>
+          <t>"B Corp认证纪录片"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>林薇</t>
+          <t>陈羽墨</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>技术可信度</t>
+          <t>道德溯源</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>用户上传28天肌肤检测图，AI生成抗氧力变化报告</t>
+          <t>拍摄品牌获得B Corp认证的全过程，突出零残忍实验标准</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>微信小程序+数据长图</t>
+          <t>Instagram长视频/微博长文</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -820,47 +820,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>磁吸膜布解压挑战</t>
+          <t>"分装试用礼盒"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>苏媛</t>
+          <t>张晓雅</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>感官疗愈</t>
+          <t>会员转化</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>模仿ASMR音效创作UGC，最佳作品获实验室参观资格</t>
+          <t>推出含3种明星产品小样的"碳中性礼盒"，会员专享</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>抖音话题赛+线下活动</t>
+          <t>抖音购物车/小程序</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -868,47 +868,47 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>碳盲盒快闪店</t>
+          <t>"#Eco透明挑战"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏媛</t>
+          <t>林薇/陈羽墨</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>环保量化</t>
+          <t>地球友好可证</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>盲盒内随机放置产品+碳抵消项目（如1㎡森林认养）</t>
+          <t>邀请用户晒产品成分表与碳标签，抽奖公示生产过程</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>线下快闪+抖音开箱</t>
+          <t>小红书话题/微博互动</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -916,32 +916,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>成分党黑科技解密</t>
+          <t>"肌肤减碳计算器"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>林薇</t>
+          <t>陈羽墨</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>技术可信度</t>
+          <t>道德溯源</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>用乐高演示微囊缓释技术，复杂原理具象化</t>
+          <t>H5工具计算使用产品减少的碳足迹，生成可分享数据卡片</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>抖音动画+小红书图解</t>
+          <t>微信小程序/官网插件</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>

--- a/outputs/Content_Idea_Repository.xlsx
+++ b/outputs/Content_Idea_Repository.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,6 @@
           <t>Score_Feasibility (1-10)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -489,27 +488,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"微囊实验室延时摄影"</t>
+          <t>AR微囊渗透实验室</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>林薇</t>
+          <t>科技成分党</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>科技精准投喂</t>
+          <t>科技可触</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>展示微囊技术12小时缓释过程的4K延时视频，配植物学家解说</t>
+          <t>开发AR滤镜实时展示微囊技术在不同皮肤层级的渗透效果</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>抖音短视频/小红书笔记/官网主页</t>
+          <t>AR滤镜/实验对比视频</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,7 +526,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -537,27 +535,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"空瓶换碳汇积分"</t>
+          <t>抗氧化成分打假挑战</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>陈羽墨</t>
+          <t>科技成分党</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>地球友好可证</t>
+          <t>成分可验</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>用户寄回空瓶获碳减排积分，可兑换树苗种植或碳汇捐赠</t>
+          <t>用户使用ORAC试纸自测面膜活性值并上传结果比对专柜正品</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Instagram活动页/微博话题/会员系统</t>
+          <t>挑战赛/UGC视频</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -567,15 +565,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -585,45 +582,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"熬夜肌PK蓝莓实验"</t>
+          <t>空瓶换碳积分计划</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>张晓雅</t>
+          <t>环保理念派</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>科技精准投喂</t>
+          <t>环保可溯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>用ORAC值测试仪对比云莓与蓝莓的抗氧化能力直播</t>
+          <t>回收包装兑换碳积分累积可换限量云莓种子套装</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>抖音挑战赛/小红书对比图</t>
+          <t>弹窗提示/闭环H5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -633,32 +629,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>"碳足迹扫码追踪"</t>
+          <t>月光面膜成本计算器</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>陈羽墨</t>
+          <t>过渡型学生党</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>地球友好可证</t>
+          <t>价值可比</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>产品包装附带二维码，扫码查看从原料到货架的碳足迹地图</t>
+          <t>交互式H5比对单次使用成本与影院护理等消费场景</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>包装设计/Instagram Stories</t>
+          <t>信息图表/动态视频</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -671,7 +667,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -681,45 +676,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"月光面膜7天挑战"</t>
+          <t>成分透明化纪录片</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>张晓雅</t>
+          <t>环保理念派</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>科技精准投喂</t>
+          <t>成分可验</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KOC记录连续7天熬夜使用效果，生成AI肌肤对比报告</t>
+          <t>跟拍原料从云南种植到实验室提取的全链路溯源过程</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>抖音合集/小红书打卡</t>
+          <t>迷你纪录片/分段视频</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -729,27 +723,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"北极云莓培育日记"</t>
+          <t>磁吸瞬吸科技PK赛</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>林薇</t>
+          <t>科技成分党</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>成分透明化</t>
+          <t>科技可触</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>发布北极云莓种植基地的360°全景视频，强调极端环境生长特性</t>
+          <t>发起与Farmacy等竞品的吸收速度对比实拍挑战</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>官网专题页/VR内容</t>
+          <t>实验室录像/慢动作拆解</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -759,15 +753,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -777,45 +770,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"B Corp认证纪录片"</t>
+          <t>校园KOC培育计划</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>陈羽墨</t>
+          <t>过渡型学生党</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>道德溯源</t>
+          <t>价值可比</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>拍摄品牌获得B Corp认证的全过程，突出零残忍实验标准</t>
+          <t>招募生物学专业学生作为种子用户进行产品众测</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Instagram长视频/微博长文</t>
+          <t>大使计划/学术报告</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -825,45 +817,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"分装试用礼盒"</t>
+          <t>云莓种植认领直播</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>张晓雅</t>
+          <t>环保理念派</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>会员转化</t>
+          <t>环保可溯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>推出含3种明星产品小样的"碳中性礼盒"，会员专享</t>
+          <t>每售出2037盒面膜即直播栽种一株实名云莓</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>抖音购物车/小程序</t>
+          <t>延时摄影/互动弹幕</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -873,45 +864,44 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"#Eco透明挑战"</t>
+          <t>月光仪式感短剧</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>林薇/陈羽墨</t>
+          <t>过渡型学生党</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>地球友好可证</t>
+          <t>价值可比</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>邀请用户晒产品成分表与碳标签，抽奖公示生产过程</t>
+          <t>围绕"平价奢护"主题制作校园浪漫情景短剧</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>小红书话题/微博互动</t>
+          <t>竖屏剧集/热点BGM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -921,45 +911,44 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"肌肤减碳计算器"</t>
+          <t>SGS认证编码验证器</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>陈羽墨</t>
+          <t>科技成分党</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>道德溯源</t>
+          <t>成分可验</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>H5工具计算使用产品减少的碳足迹，生成可分享数据卡片</t>
+          <t>小程序输入编码即可查看对应批次检测报告全文</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>微信小程序/官网插件</t>
+          <t>工具型小程序/扫码跳转</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/Content_Idea_Repository.xlsx
+++ b/outputs/Content_Idea_Repository.xlsx
@@ -488,27 +488,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AR微囊渗透实验室</t>
+          <t>"碳足迹追踪挑战"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>科技成分党</t>
+          <t>严谨成分党</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>科技可触</t>
+          <t>碳透明革命</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>开发AR滤镜实时展示微囊技术在不同皮肤层级的渗透效果</t>
+          <t>用户上传购买记录，追踪产品碳足迹，排名前10获赠环保礼包</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AR滤镜/实验对比视频</t>
+          <t>抖音挑战赛+H5互动</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,42 +535,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>抗氧化成分打假挑战</t>
+          <t>"磁吸面膜办公秀"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>科技成分党</t>
+          <t>效率至上者</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>成分可验</t>
+          <t>懒人科学护肤</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>用户使用ORAC试纸自测面膜活性值并上传结果比对专柜正品</t>
+          <t>征集用户办公时使用磁吸面膜的创意视频，最佳场景获大奖</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>挑战赛/UGC视频</t>
+          <t>抖音UGC活动</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -582,32 +582,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>空瓶换碳积分计划</t>
+          <t>"李媛博士成分实验室"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>环保理念派</t>
+          <t>严谨成分党</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>环保可溯</t>
+          <t>植物干细胞抗衰</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>回收包装兑换碳积分累积可换限量云莓种子套装</t>
+          <t>每月直播拆解产品成分，观众可提问并获得专属报告</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>弹窗提示/闭环H5</t>
+          <t>微信直播+小红书专栏</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -629,42 +629,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>月光面膜成本计算器</t>
+          <t>"空瓶改造艺术展"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>过渡型学生党</t>
+          <t>视觉驱动者</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>价值可比</t>
+          <t>共益消费生态</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>交互式H5比对单次使用成本与影院护理等消费场景</t>
+          <t>用户提交空瓶改造作品，线上展览投票，优秀作品线下展出</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>信息图表/动态视频</t>
+          <t>小红书话题+AR展示</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
@@ -676,32 +676,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>成分透明化纪录片</t>
+          <t>"抗初老有机面膜盲测"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>环保理念派</t>
+          <t>严谨成分党</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>成分可验</t>
+          <t>植物干细胞抗衰</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>跟拍原料从云南种植到实验室提取的全链路溯源过程</t>
+          <t>邀请用户盲测产品与竞品，分享真实体验赢积分</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>迷你纪录片/分段视频</t>
+          <t>小红书测评活动</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -723,27 +723,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>磁吸瞬吸科技PK赛</t>
+          <t>"碳积分限时兑换"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>科技成分党</t>
+          <t>效率至上者</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>科技可触</t>
+          <t>共益消费生态</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>发起与Farmacy等竞品的吸收速度对比实拍挑战</t>
+          <t>会员可用碳积分兑换限量产品或环保周边，倒计时刺激</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>实验室录像/慢动作拆解</t>
+          <t>微信小程序活动</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -770,32 +770,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>校园KOC培育计划</t>
+          <t>"北极熊救援计划"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>过渡型学生党</t>
+          <t>视觉驱动者</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>价值可比</t>
+          <t>碳透明革命</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>招募生物学专业学生作为种子用户进行产品众测</t>
+          <t>每售出10盒面膜，品牌承诺清理1㎡北极垃圾，用户可追踪进展</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>大使计划/学术报告</t>
+          <t>抖音短视频+官网可视化</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -817,32 +817,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>云莓种植认领直播</t>
+          <t>"面膜黑科技解密"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>环保理念派</t>
+          <t>严谨成分党</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>环保可溯</t>
+          <t>懒人科学护肤</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>每售出2037盒面膜即直播栽种一株实名云莓</t>
+          <t>制作磁吸技术原理动画，KOL@林教授讲解</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>延时摄影/互动弹幕</t>
+          <t>抖音科普视频</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -864,37 +864,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>月光仪式感短剧</t>
+          <t>"闺蜜团低碳护肤"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>过渡型学生党</t>
+          <t>视觉驱动者</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>价值可比</t>
+          <t>共益消费生态</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>围绕"平价奢护"主题制作校园浪漫情景短剧</t>
+          <t>邀请用户组队参与低碳挑战，团队奖励叠加</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>竖屏剧集/热点BGM</t>
+          <t>微信社群活动</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -911,42 +911,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SGS认证编码验证器</t>
+          <t>"月光面膜成分盲盒"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>科技成分党</t>
+          <t>视觉驱动者</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>成分可验</t>
+          <t>植物干细胞抗衰</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>小程序输入编码即可查看对应批次检测报告全文</t>
+          <t>购买产品附赠成分盲盒，内含不同植物干细胞样本</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>工具型小程序/扫码跳转</t>
+          <t>小红书开箱视频</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
